--- a/biology/Zoologie/Cuon_(genre)/Cuon_(genre).xlsx
+++ b/biology/Zoologie/Cuon_(genre)/Cuon_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cuon est un genre de carnivores caniformes de la famille des Canidae. Il comprend une seule espèce actuelle : le Dhole (C. alpinus).
 </t>
@@ -511,14 +523,51 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ce genre a été décrit en 1838 par le naturaliste britannique Brian Houghton Hodgson (1800-1894)[1].
-La seule espèce actuelle étant le Dhole, Cuon est souvent considéré comme un genre monotypique. Il comprend toutefois des espèces fossiles[2].
-Liste des espèces
-L'espèce actuelle selon ITIS      (20 décembre 2015)[3] et Mammal Species of the World (version 3, 2005)  (20 décembre 2015)[4] est :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit en 1838 par le naturaliste britannique Brian Houghton Hodgson (1800-1894).
+La seule espèce actuelle étant le Dhole, Cuon est souvent considéré comme un genre monotypique. Il comprend toutefois des espèces fossiles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cuon_(genre)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuon_(genre)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'espèce actuelle selon ITIS      (20 décembre 2015) et Mammal Species of the World (version 3, 2005)  (20 décembre 2015) est :
 Cuon alpinus (Pallas, 1811) – le Dhole
-Les espèces fossiles souvent comptabilisées sont[2] :
+Les espèces fossiles souvent comptabilisées sont :
 Cuon priscus Thenius, 1954
 Cuon rosi Pons-Moyà &amp; Moyà-Solà, 1978</t>
         </is>
